--- a/studies/labor study_A/Fragebögen/data/fragebogen_002.xlsx
+++ b/studies/labor study_A/Fragebögen/data/fragebogen_002.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\Fragebögen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16A3DE1-4A7C-4867-9A48-F5AEF711ECF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA77E5-5E41-471F-8FEC-FD50A4175ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
   <sheets>
     <sheet name="questionnaire_items" sheetId="1" r:id="rId1"/>
-    <sheet name="ausgefüllt" sheetId="2" r:id="rId2"/>
+    <sheet name="ausgefüllt" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="164">
   <si>
     <t>itemid</t>
   </si>
@@ -478,10 +478,46 @@
     <t>m</t>
   </si>
   <si>
-    <t xml:space="preserve">m </t>
+    <t>B</t>
   </si>
   <si>
-    <t>gekreuzt für</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class </t>
+  </si>
+  <si>
+    <t>age adult education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conception </t>
+  </si>
+  <si>
+    <t xml:space="preserve">answered for </t>
+  </si>
+  <si>
+    <t>student/teacher/experimenter</t>
+  </si>
+  <si>
+    <t>shortID</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -551,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -595,6 +631,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -912,9 +956,9 @@
   <dimension ref="A1:AE505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16755,17 +16799,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB7D2B0-55F7-4A38-87C6-28CDAC1F68C3}">
-  <dimension ref="A1:AF26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A7AB70-820C-47B9-A756-61412BF18490}">
+  <dimension ref="A1:AF209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="18"/>
+    <col min="9" max="9" width="10.90625" style="17"/>
+    <col min="11" max="11" width="10.90625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -16776,10 +16825,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
@@ -16794,25 +16843,25 @@
         <v>45</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>47</v>
+        <v>153</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
@@ -16850,11 +16899,13 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>149</v>
       </c>
       <c r="L2" s="7"/>
@@ -16878,52 +16929,55 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+    <row r="3" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>55</v>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
@@ -16933,22 +16987,24 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="L4" s="7"/>
@@ -16971,53 +17027,57 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
@@ -17027,22 +17087,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>149</v>
       </c>
       <c r="L6" s="7"/>
@@ -17065,6 +17127,7 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -17074,23 +17137,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -17112,81 +17177,83 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+    </row>
+    <row r="8" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
     </row>
     <row r="9" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -17208,81 +17275,83 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+    </row>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -17304,32 +17373,33 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>149</v>
       </c>
       <c r="L12" s="7"/>
@@ -17352,80 +17422,82 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-    </row>
-    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>54</v>
+    </row>
+    <row r="13" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>149</v>
       </c>
       <c r="L14" s="7"/>
@@ -17448,80 +17520,82 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-    </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
     </row>
     <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="4" t="s">
         <v>149</v>
       </c>
       <c r="L16" s="7"/>
@@ -17544,33 +17618,34 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-    </row>
-    <row r="17" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -17592,81 +17667,83 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+    </row>
+    <row r="18" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -17688,81 +17765,83 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+    </row>
+    <row r="20" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -17784,30 +17863,35 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -17828,74 +17912,84 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-    </row>
-    <row r="23" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>58</v>
+    </row>
+    <row r="23" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-    </row>
-    <row r="24" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+    </row>
+    <row r="24" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -17916,95 +18010,6932 @@
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-    </row>
-    <row r="25" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+    </row>
+    <row r="25" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>6</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>7</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>7</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
+        <v>8</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
         <v>1</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+    </row>
+    <row r="45" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+    </row>
+    <row r="46" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="47" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>1</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+    </row>
+    <row r="48" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+    </row>
+    <row r="49" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+    </row>
+    <row r="50" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>2</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+    </row>
+    <row r="51" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+    </row>
+    <row r="52" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <v>2</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+    </row>
+    <row r="53" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+    </row>
+    <row r="54" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>2</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+    </row>
+    <row r="55" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+    </row>
+    <row r="56" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <v>2</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+    </row>
+    <row r="57" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+    </row>
+    <row r="58" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7">
+        <v>3</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+    </row>
+    <row r="59" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+    </row>
+    <row r="60" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7">
+        <v>4</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+    </row>
+    <row r="61" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+    </row>
+    <row r="62" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
+        <v>4</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+    </row>
+    <row r="63" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+    </row>
+    <row r="64" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
+        <v>4</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+    </row>
+    <row r="65" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+    </row>
+    <row r="66" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
+        <v>5</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+    </row>
+    <row r="67" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>5</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
+        <v>5</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>5</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
+        <v>5</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>5</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <v>5</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <v>6</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
         <v>7</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-    </row>
-    <row r="26" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="B75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7">
+        <v>7</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>7</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7">
+        <v>7</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>7</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7">
+        <v>7</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>8</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7">
+        <v>8</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="10">
+        <v>8</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
         <v>1</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C84" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+    </row>
+    <row r="85" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>1</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4"/>
+    </row>
+    <row r="86" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+    </row>
+    <row r="87" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4"/>
+      <c r="AE87" s="4"/>
+    </row>
+    <row r="88" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D88" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+    </row>
+    <row r="89" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>1</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AE89" s="4"/>
+    </row>
+    <row r="90" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7">
+        <v>2</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J90" s="7"/>
+      <c r="K90" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+    </row>
+    <row r="91" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>2</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+    </row>
+    <row r="92" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="7">
+        <v>2</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J92" s="7"/>
+      <c r="K92" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+    </row>
+    <row r="93" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>2</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
+    </row>
+    <row r="94" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
+        <v>2</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J94" s="7"/>
+      <c r="K94" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+    </row>
+    <row r="95" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+    </row>
+    <row r="96" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7">
+        <v>2</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J96" s="7"/>
+      <c r="K96" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+    </row>
+    <row r="97" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
+        <v>3</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+    </row>
+    <row r="98" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7">
+        <v>3</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J98" s="7"/>
+      <c r="K98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+    </row>
+    <row r="99" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
+        <v>3</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+    </row>
+    <row r="100" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
+        <v>4</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J100" s="7"/>
+      <c r="K100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+    </row>
+    <row r="101" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
+        <v>4</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4"/>
+    </row>
+    <row r="102" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="7">
+        <v>4</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J102" s="7"/>
+      <c r="K102" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7"/>
+      <c r="AE102" s="7"/>
+    </row>
+    <row r="103" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4">
+        <v>4</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+    </row>
+    <row r="104" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="7">
+        <v>4</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7"/>
+    </row>
+    <row r="105" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <v>4</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+      <c r="AE105" s="4"/>
+    </row>
+    <row r="106" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="7">
+        <v>5</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J106" s="7"/>
+      <c r="K106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="7"/>
+      <c r="AB106" s="7"/>
+      <c r="AC106" s="7"/>
+      <c r="AD106" s="7"/>
+      <c r="AE106" s="7"/>
+    </row>
+    <row r="107" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
+        <v>5</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="7">
+        <v>5</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
+        <v>5</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="7">
+        <v>5</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
+        <v>5</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="7">
+        <v>5</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
+        <v>6</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="7">
+        <v>6</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="4">
+        <v>6</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7">
+        <v>6</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4">
+        <v>7</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="7">
+        <v>7</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4">
+        <v>7</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7">
+        <v>7</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="4">
+        <v>7</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7">
+        <v>7</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4">
+        <v>8</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7">
+        <v>8</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="10">
+        <v>8</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="7">
+        <v>1</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J126" s="7"/>
+      <c r="K126" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+      <c r="X126" s="7"/>
+      <c r="Y126" s="7"/>
+      <c r="Z126" s="7"/>
+      <c r="AA126" s="7"/>
+      <c r="AB126" s="7"/>
+      <c r="AC126" s="7"/>
+      <c r="AD126" s="7"/>
+      <c r="AE126" s="7"/>
+    </row>
+    <row r="127" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="4">
+        <v>1</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="4"/>
+      <c r="AE127" s="4"/>
+    </row>
+    <row r="128" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="7">
+        <v>1</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J128" s="7"/>
+      <c r="K128" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+      <c r="X128" s="7"/>
+      <c r="Y128" s="7"/>
+      <c r="Z128" s="7"/>
+      <c r="AA128" s="7"/>
+      <c r="AB128" s="7"/>
+      <c r="AC128" s="7"/>
+      <c r="AD128" s="7"/>
+      <c r="AE128" s="7"/>
+    </row>
+    <row r="129" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="4">
+        <v>1</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="4"/>
+      <c r="AD129" s="4"/>
+      <c r="AE129" s="4"/>
+    </row>
+    <row r="130" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="7">
+        <v>1</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J130" s="7"/>
+      <c r="K130" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+      <c r="W130" s="7"/>
+      <c r="X130" s="7"/>
+      <c r="Y130" s="7"/>
+      <c r="Z130" s="7"/>
+      <c r="AA130" s="7"/>
+      <c r="AB130" s="7"/>
+      <c r="AC130" s="7"/>
+      <c r="AD130" s="7"/>
+      <c r="AE130" s="7"/>
+    </row>
+    <row r="131" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="4">
+        <v>1</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+      <c r="AB131" s="4"/>
+      <c r="AC131" s="4"/>
+      <c r="AD131" s="4"/>
+      <c r="AE131" s="4"/>
+    </row>
+    <row r="132" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="7">
+        <v>2</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J132" s="7"/>
+      <c r="K132" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="7"/>
+      <c r="T132" s="7"/>
+      <c r="U132" s="7"/>
+      <c r="V132" s="7"/>
+      <c r="W132" s="7"/>
+      <c r="X132" s="7"/>
+      <c r="Y132" s="7"/>
+      <c r="Z132" s="7"/>
+      <c r="AA132" s="7"/>
+      <c r="AB132" s="7"/>
+      <c r="AC132" s="7"/>
+      <c r="AD132" s="7"/>
+      <c r="AE132" s="7"/>
+    </row>
+    <row r="133" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="4">
+        <v>2</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
+      <c r="AB133" s="4"/>
+      <c r="AC133" s="4"/>
+      <c r="AD133" s="4"/>
+      <c r="AE133" s="4"/>
+    </row>
+    <row r="134" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="7">
+        <v>2</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J134" s="7"/>
+      <c r="K134" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+      <c r="X134" s="7"/>
+      <c r="Y134" s="7"/>
+      <c r="Z134" s="7"/>
+      <c r="AA134" s="7"/>
+      <c r="AB134" s="7"/>
+      <c r="AC134" s="7"/>
+      <c r="AD134" s="7"/>
+      <c r="AE134" s="7"/>
+    </row>
+    <row r="135" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="4">
+        <v>2</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+      <c r="AD135" s="4"/>
+      <c r="AE135" s="4"/>
+    </row>
+    <row r="136" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="7">
+        <v>2</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J136" s="7"/>
+      <c r="K136" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
+      <c r="Y136" s="7"/>
+      <c r="Z136" s="7"/>
+      <c r="AA136" s="7"/>
+      <c r="AB136" s="7"/>
+      <c r="AC136" s="7"/>
+      <c r="AD136" s="7"/>
+      <c r="AE136" s="7"/>
+    </row>
+    <row r="137" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="4">
+        <v>2</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+      <c r="AB137" s="4"/>
+      <c r="AC137" s="4"/>
+      <c r="AD137" s="4"/>
+      <c r="AE137" s="4"/>
+    </row>
+    <row r="138" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="7">
+        <v>2</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J138" s="7"/>
+      <c r="K138" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
+      <c r="W138" s="7"/>
+      <c r="X138" s="7"/>
+      <c r="Y138" s="7"/>
+      <c r="Z138" s="7"/>
+      <c r="AA138" s="7"/>
+      <c r="AB138" s="7"/>
+      <c r="AC138" s="7"/>
+      <c r="AD138" s="7"/>
+      <c r="AE138" s="7"/>
+    </row>
+    <row r="139" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="4">
+        <v>3</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
+      <c r="AB139" s="4"/>
+      <c r="AC139" s="4"/>
+      <c r="AD139" s="4"/>
+      <c r="AE139" s="4"/>
+    </row>
+    <row r="140" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="7">
+        <v>3</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J140" s="7"/>
+      <c r="K140" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="7"/>
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
+      <c r="AC140" s="7"/>
+      <c r="AD140" s="7"/>
+      <c r="AE140" s="7"/>
+    </row>
+    <row r="141" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="4">
+        <v>3</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
+      <c r="AA141" s="4"/>
+      <c r="AB141" s="4"/>
+      <c r="AC141" s="4"/>
+      <c r="AD141" s="4"/>
+      <c r="AE141" s="4"/>
+    </row>
+    <row r="142" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="7">
+        <v>4</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J142" s="7"/>
+      <c r="K142" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="7"/>
+      <c r="T142" s="7"/>
+      <c r="U142" s="7"/>
+      <c r="V142" s="7"/>
+      <c r="W142" s="7"/>
+      <c r="X142" s="7"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="7"/>
+      <c r="AA142" s="7"/>
+      <c r="AB142" s="7"/>
+      <c r="AC142" s="7"/>
+      <c r="AD142" s="7"/>
+      <c r="AE142" s="7"/>
+    </row>
+    <row r="143" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="4">
+        <v>4</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+      <c r="AB143" s="4"/>
+      <c r="AC143" s="4"/>
+      <c r="AD143" s="4"/>
+      <c r="AE143" s="4"/>
+    </row>
+    <row r="144" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="7">
+        <v>4</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J144" s="7"/>
+      <c r="K144" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="7"/>
+      <c r="T144" s="7"/>
+      <c r="U144" s="7"/>
+      <c r="V144" s="7"/>
+      <c r="W144" s="7"/>
+      <c r="X144" s="7"/>
+      <c r="Y144" s="7"/>
+      <c r="Z144" s="7"/>
+      <c r="AA144" s="7"/>
+      <c r="AB144" s="7"/>
+      <c r="AC144" s="7"/>
+      <c r="AD144" s="7"/>
+      <c r="AE144" s="7"/>
+    </row>
+    <row r="145" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="4">
+        <v>4</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+      <c r="AB145" s="4"/>
+      <c r="AC145" s="4"/>
+      <c r="AD145" s="4"/>
+      <c r="AE145" s="4"/>
+    </row>
+    <row r="146" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="7">
+        <v>4</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J146" s="7"/>
+      <c r="K146" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="7"/>
+      <c r="Y146" s="7"/>
+      <c r="Z146" s="7"/>
+      <c r="AA146" s="7"/>
+      <c r="AB146" s="7"/>
+      <c r="AC146" s="7"/>
+      <c r="AD146" s="7"/>
+      <c r="AE146" s="7"/>
+    </row>
+    <row r="147" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>4</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="4"/>
+      <c r="AD147" s="4"/>
+      <c r="AE147" s="4"/>
+    </row>
+    <row r="148" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="7">
+        <v>5</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J148" s="7"/>
+      <c r="K148" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="7"/>
+      <c r="T148" s="7"/>
+      <c r="U148" s="7"/>
+      <c r="V148" s="7"/>
+      <c r="W148" s="7"/>
+      <c r="X148" s="7"/>
+      <c r="Y148" s="7"/>
+      <c r="Z148" s="7"/>
+      <c r="AA148" s="7"/>
+      <c r="AB148" s="7"/>
+      <c r="AC148" s="7"/>
+      <c r="AD148" s="7"/>
+      <c r="AE148" s="7"/>
+    </row>
+    <row r="149" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>5</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="7">
+        <v>5</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>5</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="7">
+        <v>5</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="4">
+        <v>5</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="7">
+        <v>5</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="4">
+        <v>6</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="7">
+        <v>6</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="4">
+        <v>6</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="7">
+        <v>6</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="4">
+        <v>7</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="7">
+        <v>7</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="4">
+        <v>7</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="7">
+        <v>7</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="4">
+        <v>7</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="7">
+        <v>7</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="4">
+        <v>8</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="7">
+        <v>8</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="10">
+        <v>8</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K167" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="7">
+        <v>1</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J168" s="7"/>
+      <c r="K168" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="7"/>
+      <c r="V168" s="7"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7"/>
+      <c r="Y168" s="7"/>
+      <c r="Z168" s="7"/>
+      <c r="AA168" s="7"/>
+      <c r="AB168" s="7"/>
+      <c r="AC168" s="7"/>
+      <c r="AD168" s="7"/>
+      <c r="AE168" s="7"/>
+    </row>
+    <row r="169" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="4">
+        <v>1</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
+      <c r="Z169" s="4"/>
+      <c r="AA169" s="4"/>
+      <c r="AB169" s="4"/>
+      <c r="AC169" s="4"/>
+      <c r="AD169" s="4"/>
+      <c r="AE169" s="4"/>
+    </row>
+    <row r="170" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="7">
+        <v>1</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J170" s="7"/>
+      <c r="K170" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="7"/>
+      <c r="V170" s="7"/>
+      <c r="W170" s="7"/>
+      <c r="X170" s="7"/>
+      <c r="Y170" s="7"/>
+      <c r="Z170" s="7"/>
+      <c r="AA170" s="7"/>
+      <c r="AB170" s="7"/>
+      <c r="AC170" s="7"/>
+      <c r="AD170" s="7"/>
+      <c r="AE170" s="7"/>
+    </row>
+    <row r="171" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="4">
+        <v>1</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
+      <c r="Z171" s="4"/>
+      <c r="AA171" s="4"/>
+      <c r="AB171" s="4"/>
+      <c r="AC171" s="4"/>
+      <c r="AD171" s="4"/>
+      <c r="AE171" s="4"/>
+    </row>
+    <row r="172" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="7">
+        <v>1</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J172" s="7"/>
+      <c r="K172" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7"/>
+      <c r="T172" s="7"/>
+      <c r="U172" s="7"/>
+      <c r="V172" s="7"/>
+      <c r="W172" s="7"/>
+      <c r="X172" s="7"/>
+      <c r="Y172" s="7"/>
+      <c r="Z172" s="7"/>
+      <c r="AA172" s="7"/>
+      <c r="AB172" s="7"/>
+      <c r="AC172" s="7"/>
+      <c r="AD172" s="7"/>
+      <c r="AE172" s="7"/>
+    </row>
+    <row r="173" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="4">
+        <v>1</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
+      <c r="AB173" s="4"/>
+      <c r="AC173" s="4"/>
+      <c r="AD173" s="4"/>
+      <c r="AE173" s="4"/>
+    </row>
+    <row r="174" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="7">
+        <v>2</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J174" s="7"/>
+      <c r="K174" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+      <c r="U174" s="7"/>
+      <c r="V174" s="7"/>
+      <c r="W174" s="7"/>
+      <c r="X174" s="7"/>
+      <c r="Y174" s="7"/>
+      <c r="Z174" s="7"/>
+      <c r="AA174" s="7"/>
+      <c r="AB174" s="7"/>
+      <c r="AC174" s="7"/>
+      <c r="AD174" s="7"/>
+      <c r="AE174" s="7"/>
+    </row>
+    <row r="175" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="4">
+        <v>2</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
+      <c r="Z175" s="4"/>
+      <c r="AA175" s="4"/>
+      <c r="AB175" s="4"/>
+      <c r="AC175" s="4"/>
+      <c r="AD175" s="4"/>
+      <c r="AE175" s="4"/>
+    </row>
+    <row r="176" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="7">
+        <v>2</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J176" s="7"/>
+      <c r="K176" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="7"/>
+      <c r="V176" s="7"/>
+      <c r="W176" s="7"/>
+      <c r="X176" s="7"/>
+      <c r="Y176" s="7"/>
+      <c r="Z176" s="7"/>
+      <c r="AA176" s="7"/>
+      <c r="AB176" s="7"/>
+      <c r="AC176" s="7"/>
+      <c r="AD176" s="7"/>
+      <c r="AE176" s="7"/>
+    </row>
+    <row r="177" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="4">
+        <v>2</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
+      <c r="Z177" s="4"/>
+      <c r="AA177" s="4"/>
+      <c r="AB177" s="4"/>
+      <c r="AC177" s="4"/>
+      <c r="AD177" s="4"/>
+      <c r="AE177" s="4"/>
+    </row>
+    <row r="178" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="7">
+        <v>2</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J178" s="7"/>
+      <c r="K178" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="7"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="7"/>
+      <c r="V178" s="7"/>
+      <c r="W178" s="7"/>
+      <c r="X178" s="7"/>
+      <c r="Y178" s="7"/>
+      <c r="Z178" s="7"/>
+      <c r="AA178" s="7"/>
+      <c r="AB178" s="7"/>
+      <c r="AC178" s="7"/>
+      <c r="AD178" s="7"/>
+      <c r="AE178" s="7"/>
+    </row>
+    <row r="179" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="4">
+        <v>2</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
+      <c r="S179" s="4"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
+      <c r="Z179" s="4"/>
+      <c r="AA179" s="4"/>
+      <c r="AB179" s="4"/>
+      <c r="AC179" s="4"/>
+      <c r="AD179" s="4"/>
+      <c r="AE179" s="4"/>
+    </row>
+    <row r="180" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="7">
+        <v>2</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J180" s="7"/>
+      <c r="K180" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+      <c r="V180" s="7"/>
+      <c r="W180" s="7"/>
+      <c r="X180" s="7"/>
+      <c r="Y180" s="7"/>
+      <c r="Z180" s="7"/>
+      <c r="AA180" s="7"/>
+      <c r="AB180" s="7"/>
+      <c r="AC180" s="7"/>
+      <c r="AD180" s="7"/>
+      <c r="AE180" s="7"/>
+    </row>
+    <row r="181" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="4">
+        <v>3</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
+      <c r="Z181" s="4"/>
+      <c r="AA181" s="4"/>
+      <c r="AB181" s="4"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+    </row>
+    <row r="182" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="7">
+        <v>3</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J182" s="7"/>
+      <c r="K182" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7"/>
+      <c r="T182" s="7"/>
+      <c r="U182" s="7"/>
+      <c r="V182" s="7"/>
+      <c r="W182" s="7"/>
+      <c r="X182" s="7"/>
+      <c r="Y182" s="7"/>
+      <c r="Z182" s="7"/>
+      <c r="AA182" s="7"/>
+      <c r="AB182" s="7"/>
+      <c r="AC182" s="7"/>
+      <c r="AD182" s="7"/>
+      <c r="AE182" s="7"/>
+    </row>
+    <row r="183" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="4">
+        <v>3</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
+      <c r="Z183" s="4"/>
+      <c r="AA183" s="4"/>
+      <c r="AB183" s="4"/>
+      <c r="AC183" s="4"/>
+      <c r="AD183" s="4"/>
+      <c r="AE183" s="4"/>
+    </row>
+    <row r="184" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="7">
+        <v>4</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J184" s="7"/>
+      <c r="K184" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="7"/>
+      <c r="T184" s="7"/>
+      <c r="U184" s="7"/>
+      <c r="V184" s="7"/>
+      <c r="W184" s="7"/>
+      <c r="X184" s="7"/>
+      <c r="Y184" s="7"/>
+      <c r="Z184" s="7"/>
+      <c r="AA184" s="7"/>
+      <c r="AB184" s="7"/>
+      <c r="AC184" s="7"/>
+      <c r="AD184" s="7"/>
+      <c r="AE184" s="7"/>
+    </row>
+    <row r="185" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="4">
+        <v>4</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
+      <c r="Z185" s="4"/>
+      <c r="AA185" s="4"/>
+      <c r="AB185" s="4"/>
+      <c r="AC185" s="4"/>
+      <c r="AD185" s="4"/>
+      <c r="AE185" s="4"/>
+    </row>
+    <row r="186" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="7">
+        <v>4</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J186" s="7"/>
+      <c r="K186" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="7"/>
+      <c r="V186" s="7"/>
+      <c r="W186" s="7"/>
+      <c r="X186" s="7"/>
+      <c r="Y186" s="7"/>
+      <c r="Z186" s="7"/>
+      <c r="AA186" s="7"/>
+      <c r="AB186" s="7"/>
+      <c r="AC186" s="7"/>
+      <c r="AD186" s="7"/>
+      <c r="AE186" s="7"/>
+    </row>
+    <row r="187" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="4">
+        <v>4</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
+      <c r="Z187" s="4"/>
+      <c r="AA187" s="4"/>
+      <c r="AB187" s="4"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="4"/>
+      <c r="AE187" s="4"/>
+    </row>
+    <row r="188" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="7">
+        <v>4</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J188" s="7"/>
+      <c r="K188" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7"/>
+      <c r="T188" s="7"/>
+      <c r="U188" s="7"/>
+      <c r="V188" s="7"/>
+      <c r="W188" s="7"/>
+      <c r="X188" s="7"/>
+      <c r="Y188" s="7"/>
+      <c r="Z188" s="7"/>
+      <c r="AA188" s="7"/>
+      <c r="AB188" s="7"/>
+      <c r="AC188" s="7"/>
+      <c r="AD188" s="7"/>
+      <c r="AE188" s="7"/>
+    </row>
+    <row r="189" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="4">
+        <v>4</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
+      <c r="Z189" s="4"/>
+      <c r="AA189" s="4"/>
+      <c r="AB189" s="4"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="4"/>
+      <c r="AE189" s="4"/>
+    </row>
+    <row r="190" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="7">
+        <v>5</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J190" s="7"/>
+      <c r="K190" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
+      <c r="T190" s="7"/>
+      <c r="U190" s="7"/>
+      <c r="V190" s="7"/>
+      <c r="W190" s="7"/>
+      <c r="X190" s="7"/>
+      <c r="Y190" s="7"/>
+      <c r="Z190" s="7"/>
+      <c r="AA190" s="7"/>
+      <c r="AB190" s="7"/>
+      <c r="AC190" s="7"/>
+      <c r="AD190" s="7"/>
+      <c r="AE190" s="7"/>
+    </row>
+    <row r="191" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="4">
+        <v>5</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="7">
+        <v>5</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="4">
+        <v>5</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="7">
+        <v>5</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="4">
+        <v>5</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="7">
+        <v>5</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="4">
+        <v>6</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="7">
+        <v>6</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="4">
+        <v>6</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="7">
+        <v>6</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="4">
+        <v>7</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="7">
+        <v>7</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K202" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="4">
+        <v>7</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="7">
+        <v>7</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="4">
+        <v>7</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="7">
+        <v>7</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K206" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="4">
+        <v>8</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K207" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="7">
+        <v>8</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K208" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="10">
+        <v>8</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H209" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I209" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K209" s="10" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
